--- a/500all/speech_level/speeches_CHRG-114hhrg20311.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400320</t>
   </si>
   <si>
-    <t>Joseph R. Pitts</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pitts. It is 10 o'clock, so we will begin.    The subcommittee will come to order.    The Chair will recognize himself for an opening statement.    Today's hearing will consider three bipartisan legislative bills designed to strengthen the Medicare program:    H.R. 556, the Prevent Interruptions in Physical Therapy Act, sponsored by our colleague Representative Gus Bilirakis of Florida, would add therapists--physical, occupational, and speech--to the list of providers allowed to transfer care for a Medicare patient in circumstances of illness, pregnancy, or vacation;    H.R. 1934, the Cancer Care Payment Reform Act, sponsored by the House Republican Conference chairman, Cathy McMorris Rodgers of Washington, establishes a national Oncology Medical Home Demonstration Project to improve Medicare payments for cancer care;    Thirdly, draft legislation, authored by Representative Greg Walden of Oregon, would make changes to documentation and face-to-face requirements for home health providers under the Medicare program.    Together, these three bills continue the commitment this Congress has to strengthen the Medicare program and to keep the promise for seniors, which was started earlier this year by permanently repealing and replacing the broken sustainable growth rate, the SGR, an effort spanning several years to enactment this past April.    I want to thank our witnesses for agreeing to testify today. They bring real world experience regarding problems in the Medicare program, and we welcome their views on the legislation before us today.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lujan. Thank you very much, Chairman Pitts. And I appreciate you and the ranking member and all the members of the subcommittee for allowing us to be here today for this important conversation.    I am pleased that, today, the committee is considering H.R. 556, the Prevent Interruptions to Physical Therapy Act. Physical therapy.    Congressman Bilirakis and I introduced this bill in the previous Congress and again at the beginning of this Congress because, under current law, physical therapists are not allowed to enter locum tenens agreements. The physical therapy act changes this by allowing physical therapy practices to hire a qualified locum tenens physical therapist to treat Medicare patients during an absence by one of the practice's regular physical therapists.    For many seniors, physical therapy services provide a path to restore mobility after an injury or a medical procedure and a way to restore function and return to the activity level that they have long enjoyed. With the help of their physical therapists many patients are able to recover and continue to live independently with a higher quality of life.    There are times, however, when physical therapy services can be interrupted due to the provider having an illness, taking a vacation, maternity leave, or continuing their professional education. In other words, Mr. Chairman, you know, life moves on as well; but, unfortunately, physical therapists aren't able to try to bring in some of their peers to provide coverage, like doctors, osteopathic physicians, dental surgeons, podiatrists, optometrists, or chiropractors.    These interruptions can easily be handled by entering into what is called a locum tenens agreement with another qualified provider. Under these arrangements, the regular provider is able to bill and receive payment under Medicare part B for the locum tenens provider services as if they had performed them themselves. The locum tenens provider is compensated directly by the practice of the regular provider.    These arrangements are common and extremely beneficial to patients and providers alike as the relationship between the patient and the practice is continued by another licensed, qualified provider during their short-term leave. Especially in isolated rural areas, a locum tenens provider can keep a small medical practice open to serve patients who would otherwise have to travel long distances to another provider. By hiring a locum tenens, a provider is able to ensure that their patient care does not lapse.    The Senate companion bill was voted out of committee in June, and I am pleased that our bill is before the committee today; and I look forward to the testimony and questions about this commonsense legislation.    And, again, I want to thank Congressman Bilirakis for his leadership. It has been a pleasure and an honor to work with him on this important issue.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>412250</t>
   </si>
   <si>
-    <t>Gus M. Bilirakis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you, Mr. Chairman. I appreciate it very much. Thanks for also addressing this particular bill this morning. The Prevent Interruptions in Physical Therapy Act is a bipartisan bill that I introduced, along with my good friend and colleague, Ben Ray Lujan.    Currently, Medicare allows a wide range of medical providers, including doctors of medicine, osteopathy, and chiropractors, the ability to bring in other licensed professionals under their provider number. This allows for substitutes for when a practice is short-staffed for a short period of time for reasons such as illness, maternity or paternity leave, or vacation. Such instances are referred to as ``locum tenens arrangements.'' Physical therapists currently are excluded from employing locum tenens in their practices, forcing seniors to either find a new physical therapist or not receive treatment during the time their therapist is out.    To illustrate the problem that occurs, this is a letter from Alicia Nixon, a physical therapist in Hillsborough County, Florida, and I quote, ``I am a private practice owner and have served mostly Medicare patients for the last 11 years. The current Medicare rules have been very difficult and detrimental, at times, to my practice's viability. Just as important, there have been times that were completely unavoidable and that the Medicare patients were not able to be seen in order to remain in compliance with the current regulations. It has been almost impossible to take a vacation or time to attend conferences or seminars because of my need to be onsite at the clinic. I was recommended to have surgery 6 years ago that I still have not had because it would require me to be away from the practice for over 6 weeks for recovery. When I received a court summons, I had to close the clinic for 2 days, with patient visits having to be canceled, and all staff lost wages from the necessary closure,'' end quote.    At one point, this practice lost a physical therapist. It took about a year to fill that vacancy, and then she writes again and I quote: ``In the timeframe that I was looking to fill the vacancy here at the practice, my biggest fear was that, if I was in an accident and physically not able to be onsite for a period of time, it would mean certain closure of the office. It is very sad that an office that has provided excellent services to the Medicare community is so vulnerable because of the current regulations.'' We need to pass this bill, Mr. Chairman. It is pro-patient and pro-physical therapist.    I yield back. Actually, I would like to yield the rest of my time to Chairman Greg Walden. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Walden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walden. I thank the gentleman very much.    Mr. Chairman and Ranking Member, thank you for holding this hearing. It is a very important issue. We need to explore the problems with this face-to-face regulation.    Our Nation has made a promise to seniors who rely on Medicare, and we must keep it, and one way to keep this promise is through home health services.    So I am happy to introduce Sarah Myers, who will be sharing her knowledge about what is going on out there. She is the Executive Director of the Oregon Association of Home Health Care. Sarah has been recognized for her outstanding contribution to the Oregon home care community and has provided the Oregon delegation with a wealth of information on the critical issues facing home health providers and the patients that they serve.    In general, home health, as you know, is less expensive, more convenient, and just as effective as care in a skilled nursing facility. Receiving care at home gives seniors more control over their health care, and it provides a sense of comfort, familiarity, and normalcy for the patient and for their loved ones.    I know this firsthand because it was the choice my parents and I made, and, in Oregon, more than 20,000 Medicare beneficiaries make that same choice.    However, under current documentation requirements associated with a so-called ``face-to-face requirement'' have placed significant pressures on the home health care community and the people they serve. In order for a patient to meet the eligibility criteria for home health, a physician must document that a face-to-face meeting occurred between the patient and a physician or a nonpatient practitioner--or a nonphysician practitioner.    While intended to be a way to reduce waste, fraud, and abuse by ensuring the orders and certification of home health care are based on actual knowledge of the patient's condition, unclear documentation requirements from the Government have led to a slew of payment denials and additional documentation requests.    So we have a situation in which a complicated regulatory process simply needs to be streamlined and standardized, and that is what this election would do.    First, it requires the Secretary to develop a single standardized form which satisfies the requirements of the home health certification;    And second, the bill streamlines the process and eases the requirements if the patient has been discharged from the hospital or skilled nursing facility;    Third, anyone who uses this form must receive proper notification and education on the documentation requirements;    And finally, the Secretary must implement a process to reopen review claims which were denied solely due to the face-to-face documentation concerns and issue revised decisions if the claims were denied because of the patient narrative--a requirement that even CMS recently dropped because of the burden on providers.    So, Mr. Chairman, this isn't just about a backlog of appeals and red tape. It is about improving access to and quality care of our seniors, and that is why this legislation has the support of the home health providers, including the Partnership for Quality Home Healthcare, the National Association for Home Care &amp; Hospice, and the Visiting Nurse Associations of America.    Mr. Chairman, I ask unanimous consent to submit their statements for the record.    I also would like to submit into the record three letters to CMS from 2011, 2013, and 2014 from the House and Senate, expressing concerns with the face-to-face documentation request.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I am always happy to come together to examine bipartisan ways to improve the Medicare program and beneficiary access, and I would be remiss in not mentioning that a witness from the administration would have made this hearing more informative. The administration would have been able to speak to whether these bills are implementable and what we could do to improve them.    The first bill under discussion today is an example of why the administration's input would help inform our decisionmaking. The bill would set up a national Oncology Medical Home Demonstration Project in the Medicare program through care coordination management fees based on performance and shared savings and arrangements with oncology practices.    We laid the foundation for these types of payment reform demonstrations in the Affordable Care Act through the establishment of accountable care organizations, medical homes, and demonstrations within the Centers for Medicare &amp; Medicaid Innovation, CMMI.    If someone from the administration were here, they would be able to tell us about the oncology care model, a demonstration project that the Center for Medicare &amp; Medicaid Innovation has initiated. The oncology care model would also pay coordination management fees to practices and require performance and financial accountability.    I think this type of model is worthwhile. We should absolutely be looking at ways to improve oncology care in our country; but I am interested in learning why the legislation is necessary when CMMI is already implementing a similar model.    The second bill we are considering is H.R. 556, the Prevent Interruption in Physical Therapy Act, which would expand the locum tenens designation to include physical therapists.    Currently, Medicare allows physicians who are absent from their practices for extended periods--for reasons such as illness, pregnancy, vacation, or continuing medical education, to retain substitute physicians to take over their practices until they return. The ability to bring in a substitute physician is called ``locum tenens,'' and this bill would allow physical therapists to enter into these arrangements.    When there are limited options in rural or in medically underserved areas, I understand the concerns for patients' access when a physical therapist needs to be absent from his or her practice; and I look forward to working with my colleagues on this legislation to ensure it helps those who need it most.    Last, the committee is considering a discussion draft of a bill that would change the Medicare home health face-to-face requirement.    Understand that this bill is a discussion draft that has yet to be introduced, but I have concerns with further walking back the face-to-face requirement that we put in place in the Affordable Care Act.    This requirement was the result of both the inspector general and MedPAC recommendations to root out waste and fraud in the Medicare system. CMS has been listening to industry's concerns about the requirement, and work with them to make it more streamlined and easy to comply with. In fact, over the last few years, my staff and I have advocated us for these actions; however, we must be extremely careful when removing requirements that shore up program integrity.    So, again, thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, and I thank our ranking member.    And I would like to ask unanimous consent that my full statement be placed in the record.</t>
   </si>
   <si>
@@ -133,27 +115,18 @@
     <t xml:space="preserve">    Mr. Pitts. We are voting on the floor. We have 11 \\1/2\\ minutes to go, and 400 people haven't voted, so we are going to start the witnesses.    As usual, all members' written opening statements will be made a part of the record; and I'll introduce them in the order of their testimony.    First, we have Sarah Myers, CAE, Executive Director of the Oregon Association of Health Care. Welcome. Dr. Bruce Gould, President of the Community Oncology Alliance. Welcome. And Sandra Norby, PT, AT, owner, HomeTown Physical Therapy, LLC.    Thank you each for coming. Your written testimony will be made a part of the record. You will be each given 5 minutes to summarize.    Ms. Myers, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Myers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Myers. Chairman Pitts, Ranking Member Green, members of the subcommittee, and Congressman Walden, thank you for this opportunity to speak with you today.    My name is Sarah Myers, and I am the Executive Director of the Oregon Association for Home Care.    Our organization represents over 58 home health agencies, employing over 2,000 professionals and providing Medicare home health services to more than 30,000 Medicare beneficiaries who are homebound and many of whom are rural.    As you know, home health patients are among the most vulnerable in the Medicare program, and, in fact, Federal data shows that they are older, sicker, poorer, and more likely to be a minority and disabled than all other Medicare beneficiaries combined. Due to their frail condition, these seniors have been deemed homebound by their physicians, meaning they cannot leave their home without help or potential injury to themselves.    That is where skilled home health care providers come in.    We deliver nursing, therapy, infusion, medical social worker, and support services to patients recovering from an acute illness following a hospitalization. We also serve patients with severe disabilities that may confine them to a wheelchair or bed. Home health providers also care for patients whose disease state has advanced to the degree that their health and their mobility are now compromised, and compromises their continued ability to maintain independence without assistance.    Not only do our professional home health services meet the clinical needs of our patients in the patient preferred home setting, but they help our patients avoid being rehospitalized, and as a result, they help generate significant savings from the Medicare program and taxpayers.    Home health care is especially important to rural America. Without any access to hospitals, nursing homes, or other facilities, residents truly depend on home health. In fact, more than 630,000 Medicare beneficiaries in nearly 2,000 rural counties relied on home health services in 2013.    That is why I am here today, to speak to you and ask you to help us continue serving the frail seniors who need our care and the rural communities who depend on our delivery system.    One of the greatest burdens we face today is the implementation of the face-to-face requirement; but let me be clear: We strongly supported your action to require that no claim would be paid unless it was for services ordered by a physician as a result of the face-to-face encounter with the patient. That is good medicine, and that is good program integrity policy.    We need to keep in mind that the physician also certifies the patient's eligibility for Medicare coverage under penalty of various anti-fraud laws. What has created the burden on physicians and home health providers is not the policy but how it has been implemented with impossible-to-meet documentation requirements that are not in the law enacted by Congress.    Inconsistencies in the lack of standardization have forced providers to chase physicians multiple times to address issues of semantics, not to improve patient care or to improve quality performance. Documentation compliance has become a moving target, resulting in countless hours of providers and physicians attempting to meet Medicare's unclear documentation rules, resulting in thousands of denied claims. Whether it is a missing signature on a completed form or an insufficient description regarding a patient's clinical condition, the implementation has resulted in a process that has, ultimately, created a paperwork mess of what should be straightforward documentation. Patient care is the priority. Burdensome paperwork and navigating red tape should not be.    What is most alarming with the documentation demands is that thousands of claims have been denied based on insufficient documentation even though a review of the full patient record reveals that the patient meets Medicare coverage criteria. This is not happening in a vacuum either. It is occurring at the same time home health providers are struggling under an unprecedented 14 percent, 4-year cut. A cut which is pushing home health agencies to the brink.    Medicare has tried to fix the documentation nightmare. However, its efforts have fallen far short. Fortunately, there is a solution. Congressman Walden is authoring legislation that would establish a simple approach to documenting physicians' face-to-face encounters with their patients. In place of confusing requirements, physicians would simply record the date of the encounter and use a form to identify the clinical condition for which home health is needed.    We need this legislation. It will preserve your good policy while reducing unneeded paperwork and enabling us to continue serving homebound seniors in Oregon and all across America.    In closing, I want to thank Congressman Walden and all of you for your support of home health care and your dedication to America's rural communities. Your efforts mean very, very much to us. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The Chair thanks the gentlelady.    We still have 5 minutes, and 374 Members haven't voted. We will try one more.    Dr. Gould, you're recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Gould</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gould. Thank you. Chairman Pitts, Ranking Member Green, and members of the committee, I thank you for the opportunity to share my views on payment reform in oncology and specifically on the Cancer Care Payment Reform Act, H.R. 1934.    I am a practicing medical oncologist and Medical Director of Northwest Georgia Oncology Centers, a private community oncology practice headquartered in Marietta, Georgia. Additionally, I serve as President of the Community Oncology Alliance, COA, a nonprofit organization dedicated to advocating for community oncology practices and, most importantly, the patients they serve. Close to 70 percent of Americans with cancer are treated by private practice clinics. I finally want to mention, of relevance here, that I am the son of two parents who passed away from cancer.    Community oncology practices, such as mine, have struggled from major cuts to reimbursement by Medicare. For example, the decision by CMS to apply sequestration to the underlying costs of cancer drugs has led to many drugs being reimbursed for less than their acquisition price. As a result, over 300 practices have closed treatment sites and, more significantly, close to 550 practices have merged with hospital systems.    The data is clear on the consolidation of cancer care in the United States. It is creating access to care problems for patients in rural areas and, very significantly, increasing the costs of cancer care for seniors in the Medicare program. This unwanted trend has been documented by reports this year by the GAO and MedPAC.    Despite reimbursement pressures from Medicare, our practice, years ago, made a decision to ambitiously transform ourselves into a patient-centric Oncology Medical Home. Our goal was simple: to better control the costs of cancer care while enhancing the quality of the patient experience. Among other things, we improved care coordination for our patients, established a structured triage, initiated a comprehensive patient satisfaction survey, and developed our own treatment guidelines.    One benefit of this transformation is that same-day appointments are rarely available in our nonclinics. Therefore, if our patients are ill, they can come to our clinics rather than going to the hospital emergency room. Medicare moneys are saved by the avoidance of needless emergency room visits and hospitalizations, and the patients are happier by not being subjected to hours of waiting in the emergency room.    Our hard work has recently been recognized by the commission on cancer through their accreditation of our practice as one of the first Oncology Medical Homes. Our dedication to value-based care has led us to partnering with private payers and CMS on oncology payment reform pilots.    One program we and several others completed with UnitedHealthcare resulted in cancer care savings of 34 percent as compared to a case control group. The results were published in the peer-review ``Journal of Oncology Practice,'' a copy of which I have submitted with my remarks for the record.    We are also part of a national $19 million grant from the Centers for Medicare &amp; Medicaid Innovation, CMMI. The grant funded the ``COME HOME'' pilot, which was designed to be a real world test of the oncology and medical home tenants. Findings from NORC at the University of Chicago, the independent research entity CMMI contracted with to measure results, were nothing short of remarkable. They showed an overall reduction of cancer care costs due to reduced hospitalizations, re-admissions, and emergency department utilizations. I have included these results with my written testimony.    I am here today to implore Congress to immediately pass the Cancer Care Reform Act, H.R. 1934, a bipartisan bill, introduced by Representatives Cathy McMorris Rodgers and Steve Israel. The bill lays out the specific plans for a demonstration project based on the Oncology Medical Home. It is built on successful models that have already been tested in the oncology payment reform with both private payers and CMS.    I commend Mrs. McMorris Rodgers for reaching out to practicing community oncologists for crafting her bill. In addition to support from oncologists, her legislation also has the support of patient groups, private payers, biotech companies, and pharmaceutical distributors. I also commend Congress for passing a fix to SGR, along with a path to meaningful payment reform. Community oncology practices like mine want to be part of the alternative payment reform path that the Energy and Commerce Committee developed in the SGR legislation. However, we need a Medicare alternative payment model in oncology for that to happen.    H.R. 1934 is a critical bridge to getting us to that point. I ask Congress to pass this important legislation that will lower the costs of cancer care while enhancing the quality of care for patients.    Thank you for your attention.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you.    Sorry to rush you here. We are going to do one more opening statement. No time left, but 290 people still haven't voted.    So, Ms. Norby, you're recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Norby</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norby. Chairman Pitts, Ranking Member Green, and members of the committee, thank you for holding today's hearing highlighting these important legislative issues.    My name is Sandra Norby, and I appreciate the opportunity to discuss my strong support for H.R. 556, the Prevent Interruptions in Physical Therapy Act of 2015.    I would like to especially thank Congressmen Bilirakis and Lujan for their sponsorship of this legislation.    I am a physical therapist and a member of the American Physical Therapy Association and its private practice section. My small business consists of five clinics in Iowa in communities with populations ranging from 500 to 9,000.    One of APTA's policy priorities is to improve access to care by physical therapists through the elimination of regulatory, legal, and payment policy barriers that impede patient care. Physical therapy is part of the comprehensive care model; therefore, it is high time that access to PT also receives the same protections against unavoidable absences by the therapy provider.    H.R. 556 would improve access to care by providing needed regulatory relief with a simple technical fix. This bill would allow PTs to enter into locum tenens arrangements with other qualified therapists on a temporary basis in cases such as illness, pregnancy, or jury duty. This arrangement is available to numerous Medicare providers, but physical therapists were overlooked and are not included in the law that permits locum tenens.    This means PTs in private practice are unable to be absent from the clinic, even in an emergency, without interrupting a Medicare patient's episode of care. Such interruption results in potential regression in the patient's condition. When care is resumed, the Medicare patient is likely to require more visits to achieve the original therapy goals, than what would have been realized sooner, had a locum tenens therapist been allowed. Thus, not allowing a locum tenens for PTs has the potential to increase costs to the Medicare program.    It is currently possible to hire a substitute for a planned leave by arranging for a PT to be added to the practice's Medicare certification. However, such an arrangement is not realistic for emergencies or a short-term option. The certification process is complicated and time consuming, taking 2 to 3 months under the best of circumstances, and includes an on-site visit. This cumbersome time requirement is certainly a reason that numerous other Medicare providers are permitted to use locum tenens arrangements. It only makes sense that PTs are afforded the same options.    Practicing in rural communities, as I do, my colleagues and I are often the only physical therapists in town. When we have to be gone from our clinic, our practice must turn away our Medicare patients or take extraordinary measures for them to continue their care. During a recent maternity leave for one of my therapists, I spent 12 weeks driving from my home 3 hours away, sleeping at the clinic most nights, in order for our Medicare patients to receive their care.    Under locum tenens, a clinic like mine would be allowed to bill and receive payment for the replacement therapist services. Built-in safeguards control fraud and abuse as all locum tenens arrangements must meet regulatory standards that includes identification of services on the Medicare claim form and a 60-day limit to use the provider.    Senator Charles Grassley recently received a letter stating quote: ``CMS does not have evidence indicating that locum tenens, as used by physicians under current law, has led to a general increase in utilization of services; or that industry practices generally lead to the provision of unnecessary services related to the use of locum tenens; or that the use of locum tenens under current law in the Medicare program is generally inappropriate, wasteful, or fraudulent'' close quote. Preventing the disruption of Medicare patients' therapy, as this bill will do, would likely result in lower costs to the Medicare program.    I truly appreciate the committee's interest in addressing this regulatory burden that impacts access to care. I am hoping that this simple technical correction can be achieved and that Medicare patients will be allowed to continue to access medically necessary PT services without disruption.    I look forward to working with the committee, and I am happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -208,9 +181,6 @@
     <t>412315</t>
   </si>
   <si>
-    <t>Kurt Schrader</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you very much, Mr. Chairman. A couple of questions for Ms. Myers, if I could. You said that the current home health documentation requirements aren't working as needed. There have been a lot of denials that seem odd or problematic, to put it nicely. Could you give us some real-world examples of some of the ridiculous things you have incurred from CMS in denial?</t>
   </si>
   <si>
@@ -235,9 +205,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. Thank you, Mr. Chairman. And thank you for the bills that we have got under consideration today. They are certainly worthy of discussion and certainly provide, I hope, some commonsense relief to people who are having difficulty with the agencies in trying to deliver care for their patients.    I am a cosponsor of H.R. 556, which is to prevent interruptions in physical therapy. This does seem like a commonsense approach to allow physical therapists providing outpatient physical therapy services to use specified locum tenens arrangements.    I have a constituent who wrote me, and this was a quote, ``I am a contract therapist, and this bill directly affects my business and the therapists for whom I work. One private practice owner asked me 5 months in advance to cover her vacation. Although I am fully credentialed with Medicare, I have to submit paperwork to the Center for Medicare &amp; Medicaid Services for reassignment of benefits to the clinic. By the time of the vacation, the paperwork was still not finalized.    In lieu of denying the patient's care for the week, the business owner opted to have me proceed with providing the care her patients needed. I worked an entire week and she was not able to bill Medicare for the services I provided during that time. A significant loss of revenue for what is, after all, a small business.''    So Mrs. Norby, for the record, can you explain why physical therapists weren't included in the first place? And why can't the payer, the agency, Center for Medicare &amp; Medicaid Services, just simply pay the physical therapists through regulation?</t>
   </si>
   <si>
@@ -283,9 +250,6 @@
     <t>412278</t>
   </si>
   <si>
-    <t>Brett Guthrie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank you for yielding.    Dr. Gould, my first question is, we are talking about the payment model established in the bill. How large is your practice? And I guess my question is, do you think this payment model would work for different-size practices and would hospitals be able to participate in the demonstration project created by the bill?</t>
   </si>
   <si>
@@ -388,9 +352,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. I want to apologize to the panel for missing your testimony, but I did have an important question to ask. But first, I just wanted to say, Ms. Norby, I am a happy user of physical therapy. I have very weird feet that I would like to keep working for another couple of decades, who knows, and so I am, right now, taking physical therapy and can see its results. So I just wanted to tell you that.    So I wanted to talk about the staggering cost of prescription drug prices in this country and the burden this places on patients and families. Sadly, I am well aware of that. My precious daughter-in-law passed away from cancer, but it put a tremendous strain on the family financially, in terms of having a 5-year-old and a 3-year-old also left to my son.    So it is an issue that I think we really have to be discussing more, and I know a majority of Americans agree. In fact, 73 percent of the public think that the cost of prescription drugs is unreasonable. Cancer treatments, in particular, are increasingly bankrupting patients. The average cost of new cancer drugs and other specialty drugs continue to increase each year at an unsustainable rate. We saw this dramatic example of the $13.50 pill that the hope of the owner of the company was to raise it to $750 a pill. But even less dramatic, a recent study from the American Economic Association's Journal of Economic Perspectives showed that cancer drug prices increased 10 percent every year from 1995 to 2013. And Mr. Chairman, I would like unanimous consent to place that study in the record.</t>
   </si>
   <si>
@@ -424,9 +385,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I am very happy that we are having this hearing today on ways to improve our Medicare program. In a couple of the bills that are up for discussion are very important, including H.R. 556, the Prevent Interruptions in Physical Therapy Act, which was introduced by my good friend, Mr. Bilirakis, and I am a proud cosponsor of that bill. That bill came to my attention because of the significant number of physical therapists in my district, western New York, very rural, who reached out to my office, and pretty much articulated the same problem we have heard discussed already, finding someone else to take care of their patients if the PT needs to go out of town for any variety of reasons.    Mark Howard, the owner and chief therapist of a very small private PT practice in Depew, New York, western New York again, recently wrote to me, and he said when he goes out of town, either to attend a seminar or perhaps getting the continuing education units that he would need to stay compliant with our State regulations, his wife, who is also a PT, takes over for him. So in that case, he doesn't have a problem. But he said there are times he and his wife travel together, and at that point, there is a problem. That is when they have to find a replacement therapist, assign their payments, which can take several weeks, and a lot of advanced planning, as you very well already discussed. If they didn't do this, the elderly patient care would be interrupted, obviously, as you again explain, setting back their treatment schedules.    So I really think, Ms. Norby, you handle that very well, and Mr. Bilirakis covered that in a lot of detail which we, I suppose, could go back over, but I think that has been discussed. So I would like to maybe switch, and even though today, while we are primarily talking about patient payment plans, Dr. Gould, I would like to also talk about patient access, because they are kind of related. But in particular, in reading through your testimony, I noticed you reference that there is a large number of community oncology practices that have closed or have been forced or have chosen to merge with various hospitals. And certainly my concern in this regard is on the access piece.    I just wondered if you could discuss any of the reasons, perhaps unintended or otherwise, but some of the reasons that have caused so many, especially oncology practices, to merge under hospitals?</t>
   </si>
   <si>
@@ -460,9 +418,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. I want to commend the chairman on continuing to tackle this complex and important issue by bringing up these bipartisan bills today and ensure that we keep moving forward to ensure that seniors get the access to the care that they need. And I think the bills before us today will strengthen existing programs and build upon the momentum that we started in the field with SGR reform.    I am particularly happy and want to focus on Mr. Walden's bill before us today addressing the issue with CMS's current face-to-face rule. I have long said that these rules initially put forward by CMS are imposing crushing burdens on home health agencies rules and impair their ability to provide seniors the home health services that they deserve.    Complicated, confusing, inconsistently enforced, the current face-to-face regulations have exceeded the intent of the law, and I believe has hindered the work of caregivers at home health agencies. And it is having three real-world implications for three home healthcare agencies operating within my district.    The survey actually found that 52 percent of face-to-face claim denials resulted mainly from Medicare's determination that physician's documentation was insufficient, even though medically necessary care was provided. I believe this is creating an access-to-care crisis, particularly in rural parts, not only in my district, but across the country. And it is preventing providers from delivering vital services to those most in need. Speaking of, home health patients are more likely to be women, more likely to be older, more likely to be sicker, poorer, and minorities. And I think Mr. Walden's bill makes commonsense reforms to bring the CMS rule into the scope of the intent of the law.    So I would like to just ask you, Ms. Myers, a few questions. Can you give us any real-world examples of issues about the current documentation requirements that aren't working as intended?</t>
   </si>
   <si>
@@ -527,9 +482,6 @@
   </si>
   <si>
     <t>412457</t>
-  </si>
-  <si>
-    <t>Renee L. Ellmers</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Mr. Chairman. I didn't realize I was next, but I am very happy.    Thank you to our panel for being here and for this particular subcommittee hearing. It is so important. I would like to associate myself with the gentleman from Oregon and his comments about the importance of us moving forward with good legislation so that we can take care of these patients in the way they need to be taken care of and stop having to jump through the hoops and put these patients and their families through this.    I do want to ask a couple of questions. As far as, you know, the beneficiaries of Medicare--I mean, I know you have probably answered this a million times, but isn't that the effect--and it is really a ``yes'' or ``no'' answer for all three of you. The impact will be tremendous if we can change the legislation and move forward with much more--giving our physicians, our physical therapists much more control over this situation and payment and reimbursement. I mean, this will move mountains, do you agree?    OK. You are all indicating ``yes.'' I agree with that as well. It is definitely something we have needed.    And physical therapists in our rural communities, especially, are just vital, absolutely vital. Whether we are talking about physicians or whether we are talking about physical therapists in a home health setting, it is incredibly important to be able to allow the individuals to stay in their homes. We know that that has an impact on their health care.    As far as locum tenens, how would this affect reimbursement or payment for locum tenens when--I know you were discussing how you would have had to have closed if you didn't have someone that could take that space and keep your operation going. What would you like to say about that, Ms. Norby?</t>
@@ -988,11 +940,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1014,11 +964,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1038,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1066,11 +1012,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1090,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1116,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1144,11 +1084,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1168,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1196,11 +1132,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1220,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1246,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1272,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1300,11 +1228,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1324,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1352,11 +1276,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1378,11 +1300,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1402,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1430,11 +1348,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1454,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1482,11 +1396,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1506,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1534,11 +1444,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1560,11 +1468,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1584,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1612,11 +1516,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1636,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>42</v>
-      </c>
-      <c r="H27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1664,11 +1564,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1688,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1716,11 +1612,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1740,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1768,11 +1660,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1792,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1820,11 +1708,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1844,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1872,11 +1756,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1896,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1924,11 +1804,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1948,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1974,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2000,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2026,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2052,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2078,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2106,11 +1972,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2130,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2156,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2182,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2208,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2234,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2260,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2286,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2314,11 +2164,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2338,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
-      </c>
-      <c r="G54" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2364,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2390,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2416,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2442,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2470,11 +2308,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2494,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G60" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2520,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2546,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2572,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2598,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2624,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2650,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2676,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2702,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2728,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2754,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
-      <c r="H70" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2782,11 +2596,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2806,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2834,11 +2644,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2858,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2884,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2910,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2936,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2962,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2990,11 +2788,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3014,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3040,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3066,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3092,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3118,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3146,11 +2932,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3170,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3196,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3222,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3250,11 +3028,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3274,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3300,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3326,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3354,11 +3124,9 @@
       <c r="F93" t="s">
         <v>11</v>
       </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3378,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>123</v>
-      </c>
-      <c r="G94" t="s">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3406,11 +3172,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3430,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>123</v>
-      </c>
-      <c r="G96" t="s">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3456,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3482,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>123</v>
-      </c>
-      <c r="G98" t="s">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3508,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3534,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>123</v>
-      </c>
-      <c r="G100" t="s">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3560,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
-      </c>
-      <c r="G101" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3586,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>123</v>
-      </c>
-      <c r="G102" t="s">
-        <v>124</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3614,11 +3364,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3638,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>135</v>
-      </c>
-      <c r="G104" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3664,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
-      </c>
-      <c r="G105" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3690,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>135</v>
-      </c>
-      <c r="G106" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3716,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3742,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>135</v>
-      </c>
-      <c r="G108" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3768,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3794,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G110" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3820,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>42</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3846,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>135</v>
-      </c>
-      <c r="G112" t="s">
-        <v>136</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3874,11 +3604,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3898,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
-      </c>
-      <c r="G114" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3924,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3950,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>147</v>
-      </c>
-      <c r="G116" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3976,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4002,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>147</v>
-      </c>
-      <c r="G118" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4028,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4054,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
-      </c>
-      <c r="G120" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4080,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4106,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>147</v>
-      </c>
-      <c r="G122" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4132,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4158,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>147</v>
-      </c>
-      <c r="G124" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4186,11 +3892,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4210,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
-      </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4236,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
-      </c>
-      <c r="G127" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4262,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4288,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-      <c r="G129" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4314,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4342,11 +4036,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4366,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4392,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4418,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4446,11 +4132,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4470,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>170</v>
-      </c>
-      <c r="G136" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4496,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>22</v>
-      </c>
-      <c r="G137" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4522,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>170</v>
-      </c>
-      <c r="G138" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4548,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>22</v>
-      </c>
-      <c r="G139" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4574,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>170</v>
-      </c>
-      <c r="G140" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4600,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>22</v>
-      </c>
-      <c r="G141" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4626,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>170</v>
-      </c>
-      <c r="G142" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4652,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>22</v>
-      </c>
-      <c r="G143" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4678,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>170</v>
-      </c>
-      <c r="G144" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4704,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4730,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>170</v>
-      </c>
-      <c r="G146" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4756,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>22</v>
-      </c>
-      <c r="G147" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4782,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>170</v>
-      </c>
-      <c r="G148" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4808,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>22</v>
-      </c>
-      <c r="G149" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4834,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
+        <v>155</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
         <v>170</v>
-      </c>
-      <c r="G150" t="s">
-        <v>171</v>
-      </c>
-      <c r="H150" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4860,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>22</v>
-      </c>
-      <c r="G151" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4886,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>170</v>
-      </c>
-      <c r="G152" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4914,11 +4564,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4938,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
-      </c>
-      <c r="G154" t="s">
-        <v>39</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4966,11 +4612,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20311.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pitts. It is 10 o'clock, so we will begin.    The subcommittee will come to order.    The Chair will recognize himself for an opening statement.    Today's hearing will consider three bipartisan legislative bills designed to strengthen the Medicare program:    H.R. 556, the Prevent Interruptions in Physical Therapy Act, sponsored by our colleague Representative Gus Bilirakis of Florida, would add therapists--physical, occupational, and speech--to the list of providers allowed to transfer care for a Medicare patient in circumstances of illness, pregnancy, or vacation;    H.R. 1934, the Cancer Care Payment Reform Act, sponsored by the House Republican Conference chairman, Cathy McMorris Rodgers of Washington, establishes a national Oncology Medical Home Demonstration Project to improve Medicare payments for cancer care;    Thirdly, draft legislation, authored by Representative Greg Walden of Oregon, would make changes to documentation and face-to-face requirements for home health providers under the Medicare program.    Together, these three bills continue the commitment this Congress has to strengthen the Medicare program and to keep the promise for seniors, which was started earlier this year by permanently repealing and replacing the broken sustainable growth rate, the SGR, an effort spanning several years to enactment this past April.    I want to thank our witnesses for agreeing to testify today. They bring real world experience regarding problems in the Medicare program, and we welcome their views on the legislation before us today.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Lujan Grisham</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lujan. Thank you very much, Chairman Pitts. And I appreciate you and the ranking member and all the members of the subcommittee for allowing us to be here today for this important conversation.    I am pleased that, today, the committee is considering H.R. 556, the Prevent Interruptions to Physical Therapy Act. Physical therapy.    Congressman Bilirakis and I introduced this bill in the previous Congress and again at the beginning of this Congress because, under current law, physical therapists are not allowed to enter locum tenens agreements. The physical therapy act changes this by allowing physical therapy practices to hire a qualified locum tenens physical therapist to treat Medicare patients during an absence by one of the practice's regular physical therapists.    For many seniors, physical therapy services provide a path to restore mobility after an injury or a medical procedure and a way to restore function and return to the activity level that they have long enjoyed. With the help of their physical therapists many patients are able to recover and continue to live independently with a higher quality of life.    There are times, however, when physical therapy services can be interrupted due to the provider having an illness, taking a vacation, maternity leave, or continuing their professional education. In other words, Mr. Chairman, you know, life moves on as well; but, unfortunately, physical therapists aren't able to try to bring in some of their peers to provide coverage, like doctors, osteopathic physicians, dental surgeons, podiatrists, optometrists, or chiropractors.    These interruptions can easily be handled by entering into what is called a locum tenens agreement with another qualified provider. Under these arrangements, the regular provider is able to bill and receive payment under Medicare part B for the locum tenens provider services as if they had performed them themselves. The locum tenens provider is compensated directly by the practice of the regular provider.    These arrangements are common and extremely beneficial to patients and providers alike as the relationship between the patient and the practice is continued by another licensed, qualified provider during their short-term leave. Especially in isolated rural areas, a locum tenens provider can keep a small medical practice open to serve patients who would otherwise have to travel long distances to another provider. By hiring a locum tenens, a provider is able to ensure that their patient care does not lapse.    The Senate companion bill was voted out of committee in June, and I am pleased that our bill is before the committee today; and I look forward to the testimony and questions about this commonsense legislation.    And, again, I want to thank Congressman Bilirakis for his leadership. It has been a pleasure and an honor to work with him on this important issue.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,12 +85,21 @@
     <t>412250</t>
   </si>
   <si>
+    <t>Bilirakis</t>
+  </si>
+  <si>
+    <t>Gus</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bilirakis. Thank you, Mr. Chairman. I appreciate it very much. Thanks for also addressing this particular bill this morning. The Prevent Interruptions in Physical Therapy Act is a bipartisan bill that I introduced, along with my good friend and colleague, Ben Ray Lujan.    Currently, Medicare allows a wide range of medical providers, including doctors of medicine, osteopathy, and chiropractors, the ability to bring in other licensed professionals under their provider number. This allows for substitutes for when a practice is short-staffed for a short period of time for reasons such as illness, maternity or paternity leave, or vacation. Such instances are referred to as ``locum tenens arrangements.'' Physical therapists currently are excluded from employing locum tenens in their practices, forcing seniors to either find a new physical therapist or not receive treatment during the time their therapist is out.    To illustrate the problem that occurs, this is a letter from Alicia Nixon, a physical therapist in Hillsborough County, Florida, and I quote, ``I am a private practice owner and have served mostly Medicare patients for the last 11 years. The current Medicare rules have been very difficult and detrimental, at times, to my practice's viability. Just as important, there have been times that were completely unavoidable and that the Medicare patients were not able to be seen in order to remain in compliance with the current regulations. It has been almost impossible to take a vacation or time to attend conferences or seminars because of my need to be onsite at the clinic. I was recommended to have surgery 6 years ago that I still have not had because it would require me to be away from the practice for over 6 weeks for recovery. When I received a court summons, I had to close the clinic for 2 days, with patient visits having to be canceled, and all staff lost wages from the necessary closure,'' end quote.    At one point, this practice lost a physical therapist. It took about a year to fill that vacancy, and then she writes again and I quote: ``In the timeframe that I was looking to fill the vacancy here at the practice, my biggest fear was that, if I was in an accident and physically not able to be onsite for a period of time, it would mean certain closure of the office. It is very sad that an office that has provided excellent services to the Medicare community is so vulnerable because of the current regulations.'' We need to pass this bill, Mr. Chairman. It is pro-patient and pro-physical therapist.    I yield back. Actually, I would like to yield the rest of my time to Chairman Greg Walden. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Walden</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walden. I thank the gentleman very much.    Mr. Chairman and Ranking Member, thank you for holding this hearing. It is a very important issue. We need to explore the problems with this face-to-face regulation.    Our Nation has made a promise to seniors who rely on Medicare, and we must keep it, and one way to keep this promise is through home health services.    So I am happy to introduce Sarah Myers, who will be sharing her knowledge about what is going on out there. She is the Executive Director of the Oregon Association of Home Health Care. Sarah has been recognized for her outstanding contribution to the Oregon home care community and has provided the Oregon delegation with a wealth of information on the critical issues facing home health providers and the patients that they serve.    In general, home health, as you know, is less expensive, more convenient, and just as effective as care in a skilled nursing facility. Receiving care at home gives seniors more control over their health care, and it provides a sense of comfort, familiarity, and normalcy for the patient and for their loved ones.    I know this firsthand because it was the choice my parents and I made, and, in Oregon, more than 20,000 Medicare beneficiaries make that same choice.    However, under current documentation requirements associated with a so-called ``face-to-face requirement'' have placed significant pressures on the home health care community and the people they serve. In order for a patient to meet the eligibility criteria for home health, a physician must document that a face-to-face meeting occurred between the patient and a physician or a nonpatient practitioner--or a nonphysician practitioner.    While intended to be a way to reduce waste, fraud, and abuse by ensuring the orders and certification of home health care are based on actual knowledge of the patient's condition, unclear documentation requirements from the Government have led to a slew of payment denials and additional documentation requests.    So we have a situation in which a complicated regulatory process simply needs to be streamlined and standardized, and that is what this election would do.    First, it requires the Secretary to develop a single standardized form which satisfies the requirements of the home health certification;    And second, the bill streamlines the process and eases the requirements if the patient has been discharged from the hospital or skilled nursing facility;    Third, anyone who uses this form must receive proper notification and education on the documentation requirements;    And finally, the Secretary must implement a process to reopen review claims which were denied solely due to the face-to-face documentation concerns and issue revised decisions if the claims were denied because of the patient narrative--a requirement that even CMS recently dropped because of the burden on providers.    So, Mr. Chairman, this isn't just about a backlog of appeals and red tape. It is about improving access to and quality care of our seniors, and that is why this legislation has the support of the home health providers, including the Partnership for Quality Home Healthcare, the National Association for Home Care &amp; Hospice, and the Visiting Nurse Associations of America.    Mr. Chairman, I ask unanimous consent to submit their statements for the record.    I also would like to submit into the record three letters to CMS from 2011, 2013, and 2014 from the House and Senate, expressing concerns with the face-to-face documentation request.</t>
   </si>
   <si>
@@ -91,6 +115,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    I am always happy to come together to examine bipartisan ways to improve the Medicare program and beneficiary access, and I would be remiss in not mentioning that a witness from the administration would have made this hearing more informative. The administration would have been able to speak to whether these bills are implementable and what we could do to improve them.    The first bill under discussion today is an example of why the administration's input would help inform our decisionmaking. The bill would set up a national Oncology Medical Home Demonstration Project in the Medicare program through care coordination management fees based on performance and shared savings and arrangements with oncology practices.    We laid the foundation for these types of payment reform demonstrations in the Affordable Care Act through the establishment of accountable care organizations, medical homes, and demonstrations within the Centers for Medicare &amp; Medicaid Innovation, CMMI.    If someone from the administration were here, they would be able to tell us about the oncology care model, a demonstration project that the Center for Medicare &amp; Medicaid Innovation has initiated. The oncology care model would also pay coordination management fees to practices and require performance and financial accountability.    I think this type of model is worthwhile. We should absolutely be looking at ways to improve oncology care in our country; but I am interested in learning why the legislation is necessary when CMMI is already implementing a similar model.    The second bill we are considering is H.R. 556, the Prevent Interruption in Physical Therapy Act, which would expand the locum tenens designation to include physical therapists.    Currently, Medicare allows physicians who are absent from their practices for extended periods--for reasons such as illness, pregnancy, vacation, or continuing medical education, to retain substitute physicians to take over their practices until they return. The ability to bring in a substitute physician is called ``locum tenens,'' and this bill would allow physical therapists to enter into these arrangements.    When there are limited options in rural or in medically underserved areas, I understand the concerns for patients' access when a physical therapist needs to be absent from his or her practice; and I look forward to working with my colleagues on this legislation to ensure it helps those who need it most.    Last, the committee is considering a discussion draft of a bill that would change the Medicare home health face-to-face requirement.    Understand that this bill is a discussion draft that has yet to be introduced, but I have concerns with further walking back the face-to-face requirement that we put in place in the Affordable Care Act.    This requirement was the result of both the inspector general and MedPAC recommendations to root out waste and fraud in the Medicare system. CMS has been listening to industry's concerns about the requirement, and work with them to make it more streamlined and easy to comply with. In fact, over the last few years, my staff and I have advocated us for these actions; however, we must be extremely careful when removing requirements that shore up program integrity.    So, again, thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -100,6 +130,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman, and I thank our ranking member.    And I would like to ask unanimous consent that my full statement be placed in the record.</t>
   </si>
   <si>
@@ -115,18 +151,27 @@
     <t xml:space="preserve">    Mr. Pitts. We are voting on the floor. We have 11 \\1/2\\ minutes to go, and 400 people haven't voted, so we are going to start the witnesses.    As usual, all members' written opening statements will be made a part of the record; and I'll introduce them in the order of their testimony.    First, we have Sarah Myers, CAE, Executive Director of the Oregon Association of Health Care. Welcome. Dr. Bruce Gould, President of the Community Oncology Alliance. Welcome. And Sandra Norby, PT, AT, owner, HomeTown Physical Therapy, LLC.    Thank you each for coming. Your written testimony will be made a part of the record. You will be each given 5 minutes to summarize.    Ms. Myers, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Myers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Myers. Chairman Pitts, Ranking Member Green, members of the subcommittee, and Congressman Walden, thank you for this opportunity to speak with you today.    My name is Sarah Myers, and I am the Executive Director of the Oregon Association for Home Care.    Our organization represents over 58 home health agencies, employing over 2,000 professionals and providing Medicare home health services to more than 30,000 Medicare beneficiaries who are homebound and many of whom are rural.    As you know, home health patients are among the most vulnerable in the Medicare program, and, in fact, Federal data shows that they are older, sicker, poorer, and more likely to be a minority and disabled than all other Medicare beneficiaries combined. Due to their frail condition, these seniors have been deemed homebound by their physicians, meaning they cannot leave their home without help or potential injury to themselves.    That is where skilled home health care providers come in.    We deliver nursing, therapy, infusion, medical social worker, and support services to patients recovering from an acute illness following a hospitalization. We also serve patients with severe disabilities that may confine them to a wheelchair or bed. Home health providers also care for patients whose disease state has advanced to the degree that their health and their mobility are now compromised, and compromises their continued ability to maintain independence without assistance.    Not only do our professional home health services meet the clinical needs of our patients in the patient preferred home setting, but they help our patients avoid being rehospitalized, and as a result, they help generate significant savings from the Medicare program and taxpayers.    Home health care is especially important to rural America. Without any access to hospitals, nursing homes, or other facilities, residents truly depend on home health. In fact, more than 630,000 Medicare beneficiaries in nearly 2,000 rural counties relied on home health services in 2013.    That is why I am here today, to speak to you and ask you to help us continue serving the frail seniors who need our care and the rural communities who depend on our delivery system.    One of the greatest burdens we face today is the implementation of the face-to-face requirement; but let me be clear: We strongly supported your action to require that no claim would be paid unless it was for services ordered by a physician as a result of the face-to-face encounter with the patient. That is good medicine, and that is good program integrity policy.    We need to keep in mind that the physician also certifies the patient's eligibility for Medicare coverage under penalty of various anti-fraud laws. What has created the burden on physicians and home health providers is not the policy but how it has been implemented with impossible-to-meet documentation requirements that are not in the law enacted by Congress.    Inconsistencies in the lack of standardization have forced providers to chase physicians multiple times to address issues of semantics, not to improve patient care or to improve quality performance. Documentation compliance has become a moving target, resulting in countless hours of providers and physicians attempting to meet Medicare's unclear documentation rules, resulting in thousands of denied claims. Whether it is a missing signature on a completed form or an insufficient description regarding a patient's clinical condition, the implementation has resulted in a process that has, ultimately, created a paperwork mess of what should be straightforward documentation. Patient care is the priority. Burdensome paperwork and navigating red tape should not be.    What is most alarming with the documentation demands is that thousands of claims have been denied based on insufficient documentation even though a review of the full patient record reveals that the patient meets Medicare coverage criteria. This is not happening in a vacuum either. It is occurring at the same time home health providers are struggling under an unprecedented 14 percent, 4-year cut. A cut which is pushing home health agencies to the brink.    Medicare has tried to fix the documentation nightmare. However, its efforts have fallen far short. Fortunately, there is a solution. Congressman Walden is authoring legislation that would establish a simple approach to documenting physicians' face-to-face encounters with their patients. In place of confusing requirements, physicians would simply record the date of the encounter and use a form to identify the clinical condition for which home health is needed.    We need this legislation. It will preserve your good policy while reducing unneeded paperwork and enabling us to continue serving homebound seniors in Oregon and all across America.    In closing, I want to thank Congressman Walden and all of you for your support of home health care and your dedication to America's rural communities. Your efforts mean very, very much to us. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. The Chair thanks the gentlelady.    We still have 5 minutes, and 374 Members haven't voted. We will try one more.    Dr. Gould, you're recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Gould</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Gould. Thank you. Chairman Pitts, Ranking Member Green, and members of the committee, I thank you for the opportunity to share my views on payment reform in oncology and specifically on the Cancer Care Payment Reform Act, H.R. 1934.    I am a practicing medical oncologist and Medical Director of Northwest Georgia Oncology Centers, a private community oncology practice headquartered in Marietta, Georgia. Additionally, I serve as President of the Community Oncology Alliance, COA, a nonprofit organization dedicated to advocating for community oncology practices and, most importantly, the patients they serve. Close to 70 percent of Americans with cancer are treated by private practice clinics. I finally want to mention, of relevance here, that I am the son of two parents who passed away from cancer.    Community oncology practices, such as mine, have struggled from major cuts to reimbursement by Medicare. For example, the decision by CMS to apply sequestration to the underlying costs of cancer drugs has led to many drugs being reimbursed for less than their acquisition price. As a result, over 300 practices have closed treatment sites and, more significantly, close to 550 practices have merged with hospital systems.    The data is clear on the consolidation of cancer care in the United States. It is creating access to care problems for patients in rural areas and, very significantly, increasing the costs of cancer care for seniors in the Medicare program. This unwanted trend has been documented by reports this year by the GAO and MedPAC.    Despite reimbursement pressures from Medicare, our practice, years ago, made a decision to ambitiously transform ourselves into a patient-centric Oncology Medical Home. Our goal was simple: to better control the costs of cancer care while enhancing the quality of the patient experience. Among other things, we improved care coordination for our patients, established a structured triage, initiated a comprehensive patient satisfaction survey, and developed our own treatment guidelines.    One benefit of this transformation is that same-day appointments are rarely available in our nonclinics. Therefore, if our patients are ill, they can come to our clinics rather than going to the hospital emergency room. Medicare moneys are saved by the avoidance of needless emergency room visits and hospitalizations, and the patients are happier by not being subjected to hours of waiting in the emergency room.    Our hard work has recently been recognized by the commission on cancer through their accreditation of our practice as one of the first Oncology Medical Homes. Our dedication to value-based care has led us to partnering with private payers and CMS on oncology payment reform pilots.    One program we and several others completed with UnitedHealthcare resulted in cancer care savings of 34 percent as compared to a case control group. The results were published in the peer-review ``Journal of Oncology Practice,'' a copy of which I have submitted with my remarks for the record.    We are also part of a national $19 million grant from the Centers for Medicare &amp; Medicaid Innovation, CMMI. The grant funded the ``COME HOME'' pilot, which was designed to be a real world test of the oncology and medical home tenants. Findings from NORC at the University of Chicago, the independent research entity CMMI contracted with to measure results, were nothing short of remarkable. They showed an overall reduction of cancer care costs due to reduced hospitalizations, re-admissions, and emergency department utilizations. I have included these results with my written testimony.    I am here today to implore Congress to immediately pass the Cancer Care Reform Act, H.R. 1934, a bipartisan bill, introduced by Representatives Cathy McMorris Rodgers and Steve Israel. The bill lays out the specific plans for a demonstration project based on the Oncology Medical Home. It is built on successful models that have already been tested in the oncology payment reform with both private payers and CMS.    I commend Mrs. McMorris Rodgers for reaching out to practicing community oncologists for crafting her bill. In addition to support from oncologists, her legislation also has the support of patient groups, private payers, biotech companies, and pharmaceutical distributors. I also commend Congress for passing a fix to SGR, along with a path to meaningful payment reform. Community oncology practices like mine want to be part of the alternative payment reform path that the Energy and Commerce Committee developed in the SGR legislation. However, we need a Medicare alternative payment model in oncology for that to happen.    H.R. 1934 is a critical bridge to getting us to that point. I ask Congress to pass this important legislation that will lower the costs of cancer care while enhancing the quality of care for patients.    Thank you for your attention.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Pitts. Thank you.    Sorry to rush you here. We are going to do one more opening statement. No time left, but 290 people still haven't voted.    So, Ms. Norby, you're recognized for 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Norby</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Norby. Chairman Pitts, Ranking Member Green, and members of the committee, thank you for holding today's hearing highlighting these important legislative issues.    My name is Sandra Norby, and I appreciate the opportunity to discuss my strong support for H.R. 556, the Prevent Interruptions in Physical Therapy Act of 2015.    I would like to especially thank Congressmen Bilirakis and Lujan for their sponsorship of this legislation.    I am a physical therapist and a member of the American Physical Therapy Association and its private practice section. My small business consists of five clinics in Iowa in communities with populations ranging from 500 to 9,000.    One of APTA's policy priorities is to improve access to care by physical therapists through the elimination of regulatory, legal, and payment policy barriers that impede patient care. Physical therapy is part of the comprehensive care model; therefore, it is high time that access to PT also receives the same protections against unavoidable absences by the therapy provider.    H.R. 556 would improve access to care by providing needed regulatory relief with a simple technical fix. This bill would allow PTs to enter into locum tenens arrangements with other qualified therapists on a temporary basis in cases such as illness, pregnancy, or jury duty. This arrangement is available to numerous Medicare providers, but physical therapists were overlooked and are not included in the law that permits locum tenens.    This means PTs in private practice are unable to be absent from the clinic, even in an emergency, without interrupting a Medicare patient's episode of care. Such interruption results in potential regression in the patient's condition. When care is resumed, the Medicare patient is likely to require more visits to achieve the original therapy goals, than what would have been realized sooner, had a locum tenens therapist been allowed. Thus, not allowing a locum tenens for PTs has the potential to increase costs to the Medicare program.    It is currently possible to hire a substitute for a planned leave by arranging for a PT to be added to the practice's Medicare certification. However, such an arrangement is not realistic for emergencies or a short-term option. The certification process is complicated and time consuming, taking 2 to 3 months under the best of circumstances, and includes an on-site visit. This cumbersome time requirement is certainly a reason that numerous other Medicare providers are permitted to use locum tenens arrangements. It only makes sense that PTs are afforded the same options.    Practicing in rural communities, as I do, my colleagues and I are often the only physical therapists in town. When we have to be gone from our clinic, our practice must turn away our Medicare patients or take extraordinary measures for them to continue their care. During a recent maternity leave for one of my therapists, I spent 12 weeks driving from my home 3 hours away, sleeping at the clinic most nights, in order for our Medicare patients to receive their care.    Under locum tenens, a clinic like mine would be allowed to bill and receive payment for the replacement therapist services. Built-in safeguards control fraud and abuse as all locum tenens arrangements must meet regulatory standards that includes identification of services on the Medicare claim form and a 60-day limit to use the provider.    Senator Charles Grassley recently received a letter stating quote: ``CMS does not have evidence indicating that locum tenens, as used by physicians under current law, has led to a general increase in utilization of services; or that industry practices generally lead to the provision of unnecessary services related to the use of locum tenens; or that the use of locum tenens under current law in the Medicare program is generally inappropriate, wasteful, or fraudulent'' close quote. Preventing the disruption of Medicare patients' therapy, as this bill will do, would likely result in lower costs to the Medicare program.    I truly appreciate the committee's interest in addressing this regulatory burden that impacts access to care. I am hoping that this simple technical correction can be achieved and that Medicare patients will be allowed to continue to access medically necessary PT services without disruption.    I look forward to working with the committee, and I am happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -181,6 +226,12 @@
     <t>412315</t>
   </si>
   <si>
+    <t>Schrader</t>
+  </si>
+  <si>
+    <t>Kurt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you very much, Mr. Chairman. A couple of questions for Ms. Myers, if I could. You said that the current home health documentation requirements aren't working as needed. There have been a lot of denials that seem odd or problematic, to put it nicely. Could you give us some real-world examples of some of the ridiculous things you have incurred from CMS in denial?</t>
   </si>
   <si>
@@ -205,6 +256,12 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. Thank you, Mr. Chairman. And thank you for the bills that we have got under consideration today. They are certainly worthy of discussion and certainly provide, I hope, some commonsense relief to people who are having difficulty with the agencies in trying to deliver care for their patients.    I am a cosponsor of H.R. 556, which is to prevent interruptions in physical therapy. This does seem like a commonsense approach to allow physical therapists providing outpatient physical therapy services to use specified locum tenens arrangements.    I have a constituent who wrote me, and this was a quote, ``I am a contract therapist, and this bill directly affects my business and the therapists for whom I work. One private practice owner asked me 5 months in advance to cover her vacation. Although I am fully credentialed with Medicare, I have to submit paperwork to the Center for Medicare &amp; Medicaid Services for reassignment of benefits to the clinic. By the time of the vacation, the paperwork was still not finalized.    In lieu of denying the patient's care for the week, the business owner opted to have me proceed with providing the care her patients needed. I worked an entire week and she was not able to bill Medicare for the services I provided during that time. A significant loss of revenue for what is, after all, a small business.''    So Mrs. Norby, for the record, can you explain why physical therapists weren't included in the first place? And why can't the payer, the agency, Center for Medicare &amp; Medicaid Services, just simply pay the physical therapists through regulation?</t>
   </si>
   <si>
@@ -250,6 +307,12 @@
     <t>412278</t>
   </si>
   <si>
+    <t>Guthrie</t>
+  </si>
+  <si>
+    <t>Brett</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you, Mr. Chairman. Thank you for yielding.    Dr. Gould, my first question is, we are talking about the payment model established in the bill. How large is your practice? And I guess my question is, do you think this payment model would work for different-size practices and would hospitals be able to participate in the demonstration project created by the bill?</t>
   </si>
   <si>
@@ -352,6 +415,12 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schakowsky. Thank you, Mr. Chairman. I want to apologize to the panel for missing your testimony, but I did have an important question to ask. But first, I just wanted to say, Ms. Norby, I am a happy user of physical therapy. I have very weird feet that I would like to keep working for another couple of decades, who knows, and so I am, right now, taking physical therapy and can see its results. So I just wanted to tell you that.    So I wanted to talk about the staggering cost of prescription drug prices in this country and the burden this places on patients and families. Sadly, I am well aware of that. My precious daughter-in-law passed away from cancer, but it put a tremendous strain on the family financially, in terms of having a 5-year-old and a 3-year-old also left to my son.    So it is an issue that I think we really have to be discussing more, and I know a majority of Americans agree. In fact, 73 percent of the public think that the cost of prescription drugs is unreasonable. Cancer treatments, in particular, are increasingly bankrupting patients. The average cost of new cancer drugs and other specialty drugs continue to increase each year at an unsustainable rate. We saw this dramatic example of the $13.50 pill that the hope of the owner of the company was to raise it to $750 a pill. But even less dramatic, a recent study from the American Economic Association's Journal of Economic Perspectives showed that cancer drug prices increased 10 percent every year from 1995 to 2013. And Mr. Chairman, I would like unanimous consent to place that study in the record.</t>
   </si>
   <si>
@@ -385,6 +454,12 @@
     <t>412563</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman. I am very happy that we are having this hearing today on ways to improve our Medicare program. In a couple of the bills that are up for discussion are very important, including H.R. 556, the Prevent Interruptions in Physical Therapy Act, which was introduced by my good friend, Mr. Bilirakis, and I am a proud cosponsor of that bill. That bill came to my attention because of the significant number of physical therapists in my district, western New York, very rural, who reached out to my office, and pretty much articulated the same problem we have heard discussed already, finding someone else to take care of their patients if the PT needs to go out of town for any variety of reasons.    Mark Howard, the owner and chief therapist of a very small private PT practice in Depew, New York, western New York again, recently wrote to me, and he said when he goes out of town, either to attend a seminar or perhaps getting the continuing education units that he would need to stay compliant with our State regulations, his wife, who is also a PT, takes over for him. So in that case, he doesn't have a problem. But he said there are times he and his wife travel together, and at that point, there is a problem. That is when they have to find a replacement therapist, assign their payments, which can take several weeks, and a lot of advanced planning, as you very well already discussed. If they didn't do this, the elderly patient care would be interrupted, obviously, as you again explain, setting back their treatment schedules.    So I really think, Ms. Norby, you handle that very well, and Mr. Bilirakis covered that in a lot of detail which we, I suppose, could go back over, but I think that has been discussed. So I would like to maybe switch, and even though today, while we are primarily talking about patient payment plans, Dr. Gould, I would like to also talk about patient access, because they are kind of related. But in particular, in reading through your testimony, I noticed you reference that there is a large number of community oncology practices that have closed or have been forced or have chosen to merge with various hospitals. And certainly my concern in this regard is on the access piece.    I just wondered if you could discuss any of the reasons, perhaps unintended or otherwise, but some of the reasons that have caused so many, especially oncology practices, to merge under hospitals?</t>
   </si>
   <si>
@@ -418,6 +493,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. I want to commend the chairman on continuing to tackle this complex and important issue by bringing up these bipartisan bills today and ensure that we keep moving forward to ensure that seniors get the access to the care that they need. And I think the bills before us today will strengthen existing programs and build upon the momentum that we started in the field with SGR reform.    I am particularly happy and want to focus on Mr. Walden's bill before us today addressing the issue with CMS's current face-to-face rule. I have long said that these rules initially put forward by CMS are imposing crushing burdens on home health agencies rules and impair their ability to provide seniors the home health services that they deserve.    Complicated, confusing, inconsistently enforced, the current face-to-face regulations have exceeded the intent of the law, and I believe has hindered the work of caregivers at home health agencies. And it is having three real-world implications for three home healthcare agencies operating within my district.    The survey actually found that 52 percent of face-to-face claim denials resulted mainly from Medicare's determination that physician's documentation was insufficient, even though medically necessary care was provided. I believe this is creating an access-to-care crisis, particularly in rural parts, not only in my district, but across the country. And it is preventing providers from delivering vital services to those most in need. Speaking of, home health patients are more likely to be women, more likely to be older, more likely to be sicker, poorer, and minorities. And I think Mr. Walden's bill makes commonsense reforms to bring the CMS rule into the scope of the intent of the law.    So I would like to just ask you, Ms. Myers, a few questions. Can you give us any real-world examples of issues about the current documentation requirements that aren't working as intended?</t>
   </si>
   <si>
@@ -482,6 +563,12 @@
   </si>
   <si>
     <t>412457</t>
+  </si>
+  <si>
+    <t>Ellmers</t>
+  </si>
+  <si>
+    <t>Renee</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Ellmers. Thank you, Mr. Chairman. I didn't realize I was next, but I am very happy.    Thank you to our panel for being here and for this particular subcommittee hearing. It is so important. I would like to associate myself with the gentleman from Oregon and his comments about the importance of us moving forward with good legislation so that we can take care of these patients in the way they need to be taken care of and stop having to jump through the hoops and put these patients and their families through this.    I do want to ask a couple of questions. As far as, you know, the beneficiaries of Medicare--I mean, I know you have probably answered this a million times, but isn't that the effect--and it is really a ``yes'' or ``no'' answer for all three of you. The impact will be tremendous if we can change the legislation and move forward with much more--giving our physicians, our physical therapists much more control over this situation and payment and reimbursement. I mean, this will move mountains, do you agree?    OK. You are all indicating ``yes.'' I agree with that as well. It is definitely something we have needed.    And physical therapists in our rural communities, especially, are just vital, absolutely vital. Whether we are talking about physicians or whether we are talking about physical therapists in a home health setting, it is incredibly important to be able to allow the individuals to stay in their homes. We know that that has an impact on their health care.    As far as locum tenens, how would this affect reimbursement or payment for locum tenens when--I know you were discussing how you would have had to have closed if you didn't have someone that could take that space and keep your operation going. What would you like to say about that, Ms. Norby?</t>
@@ -890,7 +977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,7 +985,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,3701 +1007,4354 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
       <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
       <c r="H46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
       <c r="H48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
       <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
       <c r="H52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
       <c r="H54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
       <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G60" t="s">
+        <v>97</v>
+      </c>
       <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>97</v>
+      </c>
       <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>97</v>
+      </c>
       <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>97</v>
+      </c>
       <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>97</v>
+      </c>
       <c r="H68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G69" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
       <c r="H70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>98</v>
+      </c>
+      <c r="I70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
       <c r="H72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
       <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>48</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>51</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>23</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>51</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>23</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>23</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>23</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>23</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>111</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G94" t="s">
+        <v>133</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>111</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G96" t="s">
+        <v>133</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>48</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>111</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G98" t="s">
+        <v>133</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>111</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>133</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>48</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>111</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G102" t="s">
+        <v>133</v>
+      </c>
       <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G104" t="s">
+        <v>146</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>48</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G106" t="s">
+        <v>146</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>48</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G108" t="s">
+        <v>146</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>48</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G110" t="s">
+        <v>146</v>
+      </c>
       <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I110" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>48</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>145</v>
+      </c>
+      <c r="G112" t="s">
+        <v>146</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>147</v>
+      </c>
+      <c r="I112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G114" t="s">
+        <v>159</v>
+      </c>
       <c r="H114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G116" t="s">
+        <v>159</v>
+      </c>
       <c r="H116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
       <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I118" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>45</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G120" t="s">
+        <v>159</v>
+      </c>
       <c r="H120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I120" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
       <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>133</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G124" t="s">
+        <v>159</v>
+      </c>
       <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G125" t="s">
+        <v>13</v>
+      </c>
       <c r="H125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>27</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>45</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>155</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G136" t="s">
+        <v>183</v>
+      </c>
       <c r="H136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I136" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>51</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>155</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G138" t="s">
+        <v>183</v>
+      </c>
       <c r="H138" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G139" t="s">
+        <v>51</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>155</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G140" t="s">
+        <v>183</v>
+      </c>
       <c r="H140" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G141" t="s">
+        <v>51</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>155</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G142" t="s">
+        <v>183</v>
+      </c>
       <c r="H142" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G143" t="s">
+        <v>51</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>155</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G144" t="s">
+        <v>183</v>
+      </c>
       <c r="H144" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I144" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
+        <v>51</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>155</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G146" t="s">
+        <v>183</v>
+      </c>
       <c r="H146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G147" t="s">
+        <v>51</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>155</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G148" t="s">
+        <v>183</v>
+      </c>
       <c r="H148" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I148" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G149" t="s">
+        <v>51</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>155</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G150" t="s">
+        <v>183</v>
+      </c>
       <c r="H150" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I150" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G151" t="s">
+        <v>51</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>155</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>182</v>
+      </c>
+      <c r="G152" t="s">
+        <v>183</v>
+      </c>
       <c r="H152" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>184</v>
+      </c>
+      <c r="I152" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G154" t="s">
+        <v>45</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20311.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20311.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400320</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Pitts</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Lujan Grisham</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -128,6 +140,9 @@
   </si>
   <si>
     <t>400160</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Green</t>
@@ -977,7 +992,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,7 +1000,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,4351 +1025,4696 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H54" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H58" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>53</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I64" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>53</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>26</v>
-      </c>
-      <c r="G67" t="s">
-        <v>48</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>53</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J68" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I74" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I76" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" t="s">
-        <v>48</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>53</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I78" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" t="s">
-        <v>51</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>51</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I84" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>51</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I90" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" t="s">
-        <v>51</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>56</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="s">
-        <v>48</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>53</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I98" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="J98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="s">
-        <v>48</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>53</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I100" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>48</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>53</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>139</v>
+      </c>
+      <c r="J102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G104" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I104" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>48</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>53</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G106" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107" t="s">
-        <v>48</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>53</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I108" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>48</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>53</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G110" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>48</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>53</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G112" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J112" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G114" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I114" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J114" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>45</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>50</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G116" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I116" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J116" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>50</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G118" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I118" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>45</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>50</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G120" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I120" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J120" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>45</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>50</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G122" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I122" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>45</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>50</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G124" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I124" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J124" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I125" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
-      </c>
-      <c r="G126" t="s">
-        <v>27</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>30</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s">
-        <v>45</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>50</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
-      </c>
-      <c r="G128" t="s">
-        <v>27</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s">
-        <v>45</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>50</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
-      </c>
-      <c r="G130" t="s">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
-      </c>
-      <c r="G132" t="s">
-        <v>27</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>30</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" t="s">
-        <v>45</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>50</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
-      </c>
-      <c r="G134" t="s">
-        <v>27</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>30</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G136" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H136" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I136" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
-      </c>
-      <c r="G137" t="s">
-        <v>51</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>56</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G138" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H138" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I138" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J138" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" t="s">
-        <v>51</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>56</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G140" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H140" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I140" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="141" spans="1:9">
+      <c r="J140" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>26</v>
-      </c>
-      <c r="G141" t="s">
-        <v>51</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>56</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G142" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I142" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J142" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" t="s">
-        <v>51</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>56</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G144" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I144" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>26</v>
-      </c>
-      <c r="G145" t="s">
-        <v>51</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>56</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G146" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H146" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J146" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>26</v>
-      </c>
-      <c r="G147" t="s">
-        <v>51</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>56</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G148" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H148" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I148" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J148" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
-      </c>
-      <c r="G149" t="s">
-        <v>51</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>56</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G150" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H150" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I150" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J150" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>26</v>
-      </c>
-      <c r="G151" t="s">
-        <v>51</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>56</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G152" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I152" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>189</v>
+      </c>
+      <c r="J152" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>26</v>
-      </c>
-      <c r="G154" t="s">
-        <v>45</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>50</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>204</v>
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
